--- a/Documents/AssetImport_2023_03_30.xlsx
+++ b/Documents/AssetImport_2023_03_30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\source\repos\DeveloperSandbox\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\source\gitHub\MicadSystems\DeveloperSandbox\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D6548-6DBD-4115-97D4-605A90318D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E63482-CC4E-44F2-892C-BCAF1E093AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{A6667225-181B-4E54-9AEC-40574701CA84}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{A6667225-181B-4E54-9AEC-40574701CA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>RegionCode</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Patient Bed 5</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Dev Room 1.1</t>
@@ -574,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A83727E-0C8F-48D7-B89D-AC8B880050F4}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -663,16 +660,16 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -707,19 +704,19 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -751,19 +748,19 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -795,10 +792,10 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -836,19 +833,19 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -880,19 +877,19 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -924,10 +921,10 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -956,25 +953,25 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>37</v>
       </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -1000,28 +997,28 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
         <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1044,36 +1041,31 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
         <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="2">
         <v>44958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E14" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
